--- a/config/stroop/Stroop_run3.xlsx
+++ b/config/stroop/Stroop_run3.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="214" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="321" uniqueCount="33">
   <si>
     <t>number</t>
   </si>
@@ -498,19 +498,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0">
         <v>3</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0">
         <v>6</v>
@@ -567,19 +567,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0">
         <v>9</v>
@@ -590,19 +590,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G6" s="0">
         <v>12</v>
@@ -613,16 +613,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>8</v>
@@ -636,19 +636,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G8" s="0">
         <v>18</v>
@@ -659,19 +659,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="0">
         <v>21</v>
@@ -682,19 +682,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G10" s="0">
         <v>24</v>
@@ -728,19 +728,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0">
         <v>30</v>
@@ -751,19 +751,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G13" s="0">
         <v>33</v>
@@ -774,19 +774,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G14" s="0">
         <v>36</v>
@@ -800,16 +800,16 @@
         <v>18</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G15" s="0">
         <v>39</v>
@@ -823,16 +823,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G16" s="0">
         <v>42</v>
@@ -843,19 +843,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G17" s="0">
         <v>45</v>
@@ -866,19 +866,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G18" s="0">
         <v>48</v>
@@ -889,19 +889,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G19" s="0">
         <v>51</v>
@@ -912,19 +912,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G20" s="0">
         <v>54</v>
@@ -935,19 +935,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G21" s="0">
         <v>57</v>
